--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E5A84C5-FE20-4234-B5F6-4E3B106A9F79}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AAE0EF98-4762-4C38-B46C-EC4F7B57900D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,42 @@
   </si>
   <si>
     <t>跟踪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.7.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系SDN厂家华三协助排查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港公有云网路割接后，当某虚拟机配置了103、223、10段外部网络后，某些虚拟机IP从外部无法ping通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马泽亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某虚拟机选择了三个外部网络，103段，223段，10段，其中103和223是去公网，10去IT私网。SDN厂家华三回复，当界面选择三个外部网络后，其VPC会将此三个网络都设置为默认路由，随机选择走哪个路由，导致某些ping响应包走到了10段网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈，某些弹性IP作为负载均衡后，无法从外网ping通。登录https://10.0.6.100:30101,用户名it_dsp，该租户下选择负载均衡，其中名称为SLB_ShortURL、SLB-Get-Server、SLB-Bid-Server、SLB-DSP-Portal不通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -426,17 +462,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="56.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -452,13 +492,13 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
@@ -471,7 +511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -503,9 +543,53 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AAE0EF98-4762-4C38-B46C-EC4F7B57900D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2AA0B54-FAD5-41D4-84FC-0B95443BC4C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,22 @@
   </si>
   <si>
     <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机挂了223.119.50.126这个浮动IP，内外都不通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM192.168.0.29,192.168.0.30，想从虚拟机访问外网，如何配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有两台虚拟机购买后，状态为错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,13 +478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -592,6 +608,51 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2AA0B54-FAD5-41D4-84FC-0B95443BC4C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14296B35-EC67-4BD8-8207-4DE74E3C27B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>handing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户反馈，某些弹性IP作为负载均衡后，无法从外网ping通。登录https://10.0.6.100:30101,用户名it_dsp，该租户下选择负载均衡，其中名称为SLB_ShortURL、SLB-Get-Server、SLB-Bid-Server、SLB-DSP-Portal不通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,15 +134,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚拟机挂了223.119.50.126这个浮动IP，内外都不通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VM192.168.0.29,192.168.0.30，想从虚拟机访问外网，如何配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有两台虚拟机购买后，状态为错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀疑内存资源不足，导致创建虚拟机失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机挂了223.119.50.126这个浮动IP，80端口无法访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀疑报故障时，80端口没有起来，导致无法从外网访问，后应用起来后，可以从外网访问。该虚拟机VPC的防火墙策略只放开了80端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录虚拟机netstat -aon |grep 80查看端口状态                 2、使用EPC查看对应VPC的防火墙策略及安全组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私网无法访问的原因，初步定为是绑定了两块网卡，在虚拟机的路由表都生成为默认路由，导致要么公网通，要么是私网通，
+我下午用测试账号做了一个测试，对于这个问题，要做如下操作
+1、解绑绑定的弹性IP；
+2、解绑网卡；
+3、重新绑定虚拟机网卡，先绑定上公网的网卡，再绑定去IT私网的网卡；
+4、将去IT私网的路由写入虚拟机路由表，命令如下
+   route add -net 10.0.7.0/24 gw 172.16.0.1
+   route add -net 172.16.0.0/24 gw 172.16.0.1
+5、上面的命令服务器重启会失效，可以将此路由写入到/etc/sysconfig/static-routes文件中，然后如果服务器重启，执行service network restart将路由信息写入路由表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDN厂家排查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPC界面，在配置负载均衡时，有一项连接限制次数的配置，默认1-10，该配置会影响负载均衡IP能维持的连接数（流表），当SDN发现该负载均衡连接数超过连接限制次数x2时将其他连接请求拒绝，直到已有连接有正常关闭或被老化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPC界面再配置负载均衡时，根据SDN的建议配置将连接限制次数适当放开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题定位时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议用户在配置负载均衡时，将健康检查中的协议选择TCP，如果选择HTTP，健康检查会检查端口状态并从默认网站路径中抓取index.html静态网页，这两项通过后该负载均衡IP才能正常使用，否则无法正常访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用测试号模拟用户环境，创建负载均衡，设置健康检查，关联虚拟机，排查问题原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.7.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">私网无法访问的原因，初步定为是绑定了两块网卡，在虚拟机的路由表都生成为默认路由，导致要么公网通，要么是私网通，
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡所配置的检查健康检查未通过导致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手动修改SDN配置                      2、SDN厂家华三修改软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港办公网IT修改防火墙策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈，某负载均衡IP103.15.85.191的15683端口有时断时续的问题，有时可以访问，有时不可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -198,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,56 +584,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6:E7"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="56.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -549,17 +665,23 @@
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -581,14 +703,17 @@
       <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -599,58 +724,147 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14296B35-EC67-4BD8-8207-4DE74E3C27B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10BEFBBE-E1FC-4986-8218-DE65CB460BC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,86 @@
   </si>
   <si>
     <t>handling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.7.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.8.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈，新建虚拟机后无法ping通8.8.8.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看了虚拟机和VPC的防火墙配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC未配置防火墙策略，VPC如果不配置策略，默认所有出公网数据包会被拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在VPC的防火墙配置中增加源为本虚拟机IP目的为0.0.0.0/0、源为0.0.0.0/0目的为本虚拟机IP的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈，VPC配置外部网络后，其外部网络地址为平台随机分配，每次配置后都会不同，是否能配置为固定IP？（目的1、防火墙策略不会总变，2、无缝迁移业务）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云平台目前不支持配置固定IP，后粱工想别的办法去解决了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lance粱询问归属于不同VPC的两台VM如何进行文件共享？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）、新建一个VPC；（2）、给这两个虚拟机绑定新网卡，新网卡归属于新建的VPC；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lance粱給虛擬機綁定了兩個網卡，每個網卡綁定了不同的浮動IP（一個是223.119。50.112，一個是103.15.85.121），問題是從公網可以ping通223段IP，103段IP無法ping通？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經與華三工程師溝通，在虛擬機內部同時只有一個公網路由生效，不能兩個公網路由同時生效。與Lance粱溝通后，此問題并不會成為日後常見場景，暫時不提需求，建議將兩個公網IP綁定到不同的虛擬機。（注：與之前馬澤亞的問題區別是，他一個去公網一個去私網，可以將去私網的路由配置為明細路由）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -601,6 +681,7 @@
     <col min="7" max="7" width="40.21875" style="2" customWidth="1"/>
     <col min="8" max="8" width="30.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="3"/>
   </cols>
@@ -706,6 +787,9 @@
       <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
       <c r="K3" t="s">
         <v>55</v>
       </c>
@@ -717,6 +801,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
@@ -738,16 +825,22 @@
       <c r="I4" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -775,6 +868,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -803,9 +899,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="331.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="346.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -839,6 +938,9 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -865,6 +967,140 @@
       </c>
       <c r="L8" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="138" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10BEFBBE-E1FC-4986-8218-DE65CB460BC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D7875-1C1E-4DF3-B8FC-935F375DDB27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,35 +303,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>云平台目前不支持配置固定IP，后粱工想别的办法去解决了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）、新建一个VPC；（2）、给这两个虚拟机绑定新网卡，新网卡归属于新建的VPC；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經與華三工程師溝通，在虛擬機內部同時只有一個公網路由生效，不能兩個公網路由同時生效。與Lance粱溝通后，此問題并不會成為日後常見場景，暫時不提需求，建議將兩個公網IP綁定到不同的虛擬機。（注：與之前馬澤亞的問題區別是，他一個去公網一個去私網，可以將去私網的路由配置為明細路由）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後端二線支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在运营平台中运营流程--&gt;资源审批界面，将該虚拟机的删除配置重新审批后，该虚拟机在用户虚拟机界面中删除。怀疑该虚拟机创建和删除需要走流程才可以生效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後端開發支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數據不一致，殘留數據</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研發修改了數據庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研發修改了數據庫，修改了三個IP的狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬澤亞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.11</t>
+  </si>
+  <si>
+    <t>2018.9.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营平台用户-&gt;分配业务系统，删除其中的选项后，再次点击还是原有的结果，（例如某用户第一次点击分配业务系统后，点X删除后，再次点击分配业务系统还是上述结果。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查看虛擬機配置；2、查看對應VPC配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某虚拟机状态顯示為错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研發懷疑創建未成功，時間太久，無法獲取創建時日誌，建議刪除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弹性IP界面223.119.50.111和103.15.85.148显示绑定了同一个虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後端開發支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户想查看该虚拟机日志，但云平台已无其创建时8月3日时的日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个223浮动IP释放后无法重新分配使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某VPC配置無法退訂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某虛擬機無法退訂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lance粱給虛擬機綁定了兩個網卡，每個網卡綁定了不同的浮動IP（一個是223.119。50.112，一個是103.15.85.121），問題是從公網可以ping通223段IP，103段IP無法ping通？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lance粱询问归属于不同VPC的两台VM如何进行文件共享？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户反馈，VPC配置外部网络后，其外部网络地址为平台随机分配，每次配置后都会不同，是否能配置为固定IP？（目的1、防火墙策略不会总变，2、无缝迁移业务）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>云平台目前不支持配置固定IP，后粱工想别的办法去解决了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.9.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lance粱询问归属于不同VPC的两台VM如何进行文件共享？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）、新建一个VPC；（2）、给这两个虚拟机绑定新网卡，新网卡归属于新建的VPC；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lance粱給虛擬機綁定了兩個網卡，每個網卡綁定了不同的浮動IP（一個是223.119。50.112，一個是103.15.85.121），問題是從公網可以ping通223段IP，103段IP無法ping通？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經與華三工程師溝通，在虛擬機內部同時只有一個公網路由生效，不能兩個公網路由同時生效。與Lance粱溝通后，此問題并不會成為日後常見場景，暫時不提需求，建議將兩個公網IP綁定到不同的虛擬機。（注：與之前馬澤亞的問題區別是，他一個去公網一個去私網，可以將去私網的路由配置為明細路由）</t>
+    <t>残留数据，研发修改了底层数据库数据，由於用戶需要重新分配103.15.85.148這個IP，研發修改了底層數據庫改IP狀態，改後用戶將103這個IP分給其他虛擬機使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想将一些虚拟机的弹性IP从223段改为103段，但虚拟机配置界面发现无法选择103段IP。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發現虛擬機所屬VPC的外部網絡選擇的是223段外部網絡，詢問後方，當VPC選擇的是223段外部網絡時，其所屬虛擬機綁定彈性IP時，只能選擇223段公網IP，如果虛擬機要選擇103段IP需要其VPC外部網絡改為103段外部網絡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、將虛擬機解綁原來223段彈性IP；                   2、在VPC配置界面中，先解綁外部網絡；                                                      3、重新綁定VPC外部網絡，這時選擇103段公網IP的外部網絡    因有演示任務，建議保障演示后再進行業務割接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研發回復:租户管理员默认能管理租户下的所有业务系统，不能修改，也就是无法删除的；但是租户操作员是能管理分配给自己的业务系统，是可以进行修改，也就是可以删除的。后建議用戶將有問題那個用戶的角色更換為租戶操作員。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +472,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -375,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -384,6 +516,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -399,6 +535,109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAiIAAADMCAYAAABOZcjxAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAABecSURBVHhe7d1/jBxnfcfx754vsAfXsAtJuJMC5EIMORNBjwiBExCKQUKKFdTITZomaqX21KhVRAs4DmBShFAUjJ1Urdr80dKU/tVKVFH/SOM/AjgSoEQoECPlxwWI5BBAZ5TAHYnhlvh82/nOznf93OOZndm92Z2ZvfdLGs/M8zw7Mzd3O8/HM7OztXpjpi2hlsh6ZwoAAGBgk/pPPZzsTCer1Wfm2gvX7xe5YE5aBBEAAJCHl5Zk6cH7RFprnfmEQDKxcMPnpdUghAAAgBxdMC/z190WzQQScsZEa3o2mgQAAMhPfWY+CCCtaC4QE0YmojEAAECuslxtIYgAAIDR8cIJQQQAABSGIAIAAEbLOStCEAEAAIUhiAAAgMIQRAAAwOhFl2cIIgAAoDAEEQAAUBiCCAAA29DshU1p/kH0xXQx6lN1mW0m1+cltyDy6ME90dTm6bz5y86yrjy3R5eVZRvyXCcAAHnSgPHQp3bLXdfvig0jWnbvDbvkoQN7hh5Gagufe6gdTQ9MO92r7j4WzXUklSXRtn69/3rlLzduPa5e61T+stL46+q1flter+0DAGDU9GzHvUEI2X3FjDz27Em583+fkZVXOt8JoyFEA8ruy4O6p4K6B8/WDWLpn28RmUwIM5MjDiLG6rK08fnlvdqZLMvx2et7tVHuctx1JklbHgAAo7ApcERhRPllWwkhqhNEdComjOQRRHp16H5dr47aX4bfwcdNq7g6HSu3XMXV+XrVx9VpmS3XytPWAQBAGfhhROUZQlRaENnSPSJu5xvHOmjrmJW198dp3GWk0WXGLTdtGW69bbc7+Mu1Mhu7/HYAAJSNBo39//OMPPbcyTCAhCEkmNayPEJIFgOfEXE74V78Nm7HHTd2aZnx25q48l7LMf208Zdv3HoT104llQMAUKTmVF3u+tNdsvuymXA+DCL//Yy01vIJIkO/NGOSOmq/k1ZWZvNKy9z2ca/126ikcl9avUvbKr993DLcMntdkqzrBwBgFPQTMXdeV+ylmZEHkbjO2MqT6o3WK3+ZJqm8lzxfY+ValjYNAECR5mebcuf18zJ/caMbPNSob1bN5TkiWTtwpW39IUmvOp/fweu8OySVufx6a+OX2XbZ2MrTZGkDAMCwzYY3qW4OIRo4dNBpLdMwctd1u8KP+g5Tbg80y9rJWqftDlkltU1bhgaGftYTF4C0zA0eNrbpuNf4srQBAGDoJkXmvBBiNoWRK2Zk2A9X3XIQ0c61307eH4ZJl591+2x74tq7gcPdZv81Sa8HAKAslldasvfIscRPx2iZ1mkbbTtMW/rUjHI7XbeDVn6HnNRJW3nc6/2yNLZ8e527vrjlG9sG47Z1y1VcXdz6VK91AgAw7kZ2syoAAICPIAIAAAoz+8P7ZHZmVur1IIgEwaOu3ztj40BuN6sCAAD0iyACAAAKQxABAACFIYgAAIDCEEQAAEBhCCIAAKAwBBEAAFAYgggAAChMbXl5mQeaAQCAoVj8y8WeDzSrtQPhFAAAQM72XruXJ6sCAIByIogAAIDClPbSTHt1Vc785CfSXlkRWV8X3chap2pg3WVMTkqt2ZQdO3dKrdHQEgAAMARpl2ZKGUQ2XnhBzvzgB9I+fToMDVIL4kNem2nLCsKNnHeeTF55pUy89a1RJQAAyFPl7hHRMyHrGkI2NqT22teK7NgRbGWwmTrOY4iWFS47WEe4rmCdAABg9EoXRPRyjERnQoZ5qiZctp5tCdYVrhMAAIxc+c6I6D0hGhD6sZXLNhp4dJ0AAGDkShdEwns3stjYODtoEPHn+5F1nQAAIFflCyJpLHS85jUiepPpe98rsnu3yPvfL/LOd4rop2CsDQAAKLVqBRENGDq87W0iH/2oyJVXiszOikxNdQLIrl0i11zTKY9uRgUAAOVVnSBiIeRd7+qcBfntb2Xjscdk4+GHZeORR2Tjm9+UjW99S9rPPdc5U/LBD3YCCmEEAIDSqlYQ0YDxjndI+/nnZePb35bayZMycfq0TAR1E2fOyMTLL4s8+WQYUOT88ztnRvTjuvpaAABQOtUIInZPiJ4N+fWvpX38eBg+ahoyvKFWq4UBRdvIhReKXHwxQQQAgJKqRhBRb36zSL0u7aWlzkZr8IijQUSfnvrTn4q88orIJZfk+2RWAACQm+oEET278eqrIlme+aFhJAge7ZMnRd7whs7ZFIIIAAClU50gomFibU1q+swPPcORQe3UqU7bfh+QBgAARqI6QUTvEznvvM4lmaxnN/QjvIpPzgAAUErVCSL6xXT6cdzXvS4q6MGCypveFJ5FCS/pZDyLAgAARqcyQSS830PDhN58Ghb0OCuidfqAs4sukvYvfiFy5gxBBACAEqpGEAlCRO3ll8Pnh8hll3Wepqphw7/kYmV6Cec97+m8Tj9to2dRuDwDAEDpVCaIhMPTT4v85jciH/iAyNvfLrJjRydg2KBB5I1vFLnqqvCBZu0f/Ujk9a8XufpqwggAACVUnXtE9OzGq6/KxqOPSvuXvxR597tF9uzpnPnQUDI/3wkcH/5wGEb0Ue8bzzwj7e99rxNC9Ivx9B6TXpd0AADASFUniKiJCZlotaQdhJGN739f2noj6lve0vmyu507w6DR/vGPwxtba5deKjsuukjkxRfD9uEj37UNQQQAgNKoVhBRGkaCUe1nP5P2d78rG9/4Rvhld+GX3x07Ju2nn5YNPQvy+9+HZ0FqGkZ+9SuRIMCEl2kAAEBpVC+IKP1OGQ0ktZpMBIFj4ne/C8+UTGxsBFVBXTCvl3BEH2h29dUy8bGPdR4Pr499BwAApVHKIHLkH+6Jps46fOQrm8YhvYE1CB42HL73SFh8JBgf+dIX5dAffVy+8te3yqHPf04O3bBPDn/6k902vn037oumOvz5OFnaZKXLyrINea4TAICi1dqBaLoUTh89Ku1WSw4HYeSOA58Jyyx86LxOW7nPrQun9x8Q94fTgKI2vf7MGanV63LTf94vD3z9gaiw0+G78760QOAvK42/rl7rt+X12j4AAMpg77V7ZXZmVupBXyuTIvVJZxwoXxB5+GFp6yWVHTu6wcKCSJy4ejeMKLfNphCiNIhMT8tN//6v54SHuI7eDRVJ9b0CQtYQ4S7HXWeStOUBAFCEygWR9ccfl40TJ7rfE2NhxPjzrrg6CyDqnLp7Dssdn/g7mZibkz85cmhTZ+4HAZ32Q4Q779f5etXH1WmZLdfK09YBAEDZVC6I/Nn1H5fLX3wp/Br/A3d8dtOlFZUliCSFD7f8M0H5kcOHpF2rycH/Oyp/fOtibBDwp10WDFxZ27n819j6/PWmzQMAUDaVCyJq44UX5Ms33yQH/vaTcs8//WMQFqKKBAc+fXs4tptcbd5oebdMb3DVH3l9PXwU/G3/8VX56oNHEzt5t1ynXXEhoJ82/vKNW2/i2qmkcgAAyqCSQUTpmZGvHfx7aa+shKFBN/LLh+6Wg589KHdHY6PzxsrdMt/BO78gtWZTduzc2T0T4nfoNp/W0fcTBLSt8tvHLcMts9clybp+AABGrbJBpFfn7HfScdOupHKj9cptY2UqqbyXPF9j5VqWNg0AQJmkBZHKPNAsa2eeN7+D13l3SCpz+fXWxi+zn9HGVp4mSxsAAMqoEkHE7ZiNliWFE6tz28SVmaSOPK2D1+X0EwL89Sp3e2xZOrbpuNf4srQBAKCMShlEtGPVjtjtoK1jVjbvl5u4+riyrbBtzELbJrW3Mmtj/NckvR4AgCor3T0ifofrds5ZxHXWcZ34oMu11/XaRr8uqW2vbeq1PtVrnQAAlEVlb1YFAADVNzY3qwIAgPFDEAEAAIUhiAAAgMIQRAAAQGEIIgAAoDAEEQAAUBiCCAAAKEz5niOyLrL07JK01ltRAYCxEby/9fkB4RjAYOw9pGOHPpdj/vL5c8qLVrkHmi09tSSzF89Ko9GISgCMuxbBBEhUzxgsVldXZfnnyzJ/RRBGSqRyQeT4D4/Lwh8uRHMAxpUbPggiQDI3iKSFkjL2oQQRAKVjwcMfq7VoDGxnU9FYWfjwx3EIIjk4ZycGByjuGRkO/SM453oi+3vL2K/xdL/MXTYX7JfOwUfDhw5rwRBMhdNJ+GvEdtB5Z2zWCR11mQo7bps/O/YRRHLg70S9Z6TZaEp9Ou5XhK1onWrJyurKpuuJ7O+tY7/Gs/0yF4Q0CyEz01ElgFQnT50NI+MUREr/8V39HySd4nDofvX/h87+3jr2azx/v3TOhADIalzfMzxHBMBI2dmQ4N9wHkBWnUuYZ99D44EgAqAQ43QgBUZhXN8zBBEAAFAYggiAkeMjusBgxvG9QxABAACFIYgAAIDCEEQAAEBhCCIAAKAwpX+yqs7PXTIXzY3e4q2L4fj+f7s/HMfRNlZv7VXca9x65bZxl+NKKs/DiedPZN7fWbbP//l8vX6OrbzWDHNf9aOf/VoW7v4f1j7U/TJ3+YKstFqy2hJZmOHheUBWx0+2pBG8ZZr1eufpqlroPWGVJ6uWTFrH1o+kZfnldgD3D+TaTgctd4c8t1HFLS/vdfTi/mz+vA5J2xK3b5Q/X4Si9+ko1uXv/6zrLHrfAKg+Ls1kkFcnGLecvJZtHvj6A92OQMc6aBkGtx326aB/h/y9AdiqygYRO/i53DL/4BjXXiWVx/Hb6nyWA3jWdnlYXV3d1DnotJaNi7jfV1KZDb5edXGGuU+Tts/YtI5tiJNUrgZ5TVbj/vcGYPjG9oyIdfw6tsE/8Or8qALCKLkdwb4b90VT5TCK34Mtz5bprs+mrd7fliRF7VP7GWx747bZft4k/b4m6z4xZf57A1B+XJrJqNeBfhB6sLchb7pM/Z+pDja/nbi/q7jf2yC/y+22T/vZR9v97w3A1my7IGIHSf9gqfPukMTqdLyVcKKv3crrk+h2aYeg/0vVwTqHMtGfO6/9OAhdpw1ZaLuy7VPbdv9nsJ/LBpfN++Uurevn96Hty/73BqDctlUQ8Q+w7rxOu0OcpPIseh3882SdgqFzOFeW37WrbPvU32Z33v25/HKXP6/6DSGKvzcAWzU2QWRUHb3qd112cE97nbbz2/TbObidgokrG0Qe25e3uH3qlg1S7xvmPvVl2Z5h0PUO8nsc5b4BMJ4q/UAz96BtnaR7MPXrTT8H3bi2ceux+aR1KrfOpLXx6/PW74O3+tk+d7/EGbTe3Qatd9vZtN/G1asuL/0+KM74P49K2l6/XRZxr3GX7+p32Vl0H2i2LtJqtWT+gs4DjQCkW3qpFT4UrBk+DKwz+Kr4QDOerLrNVfEJoFXAfo1HEAEGN65BhE/NAACAwhBEAIzcVDQG0J9xfO8QRAAAQGEIIgAKEXd9G0CycX3PEEQAjNTZm+y4URXoT/T1/9330HggiAAoxNQYHUiBURjX90zpP7679NSSNBtNqU/zv6e8tU61ZHl1RRaumI9K2N95YL/Gs/0yf3lnv7T0I7zBsBYMwVQ4naQVjYFxFnd0sLOHGkLcMyFJZ0Sq+PHd0geRky+tyvLJZZF1DkV50z+CZvDHMXNBIyphf+eB/RrP3S8WOvyxWovGwHbmfjrGDx9JIUQRRHLg78TV4H9RdIpDFPwhNJz/pbO/c8J+jefsFzd89DobAmx3bvDoFUIUQSQHegp79uJZaTSi/00GByh9AiOH8Pzpn4D9YXSxv7eM/Rovdr9ECCJAsrTwYfR7npZ/vizzzmXhMqhcENED9tKzS8GBia4QGDsaOPSgSvAABmfvIS+gaMce3oPllRetekEEAACMDYIIAAAozEf2fEQaFzS6AWRqcioc6z1jGkV4jggAACgMQQQAABSGIAIAAIYruiwj3mUZnSaIAACA4QnCRvgR5CCEdJ4Q2/nOnDCMBANBBAAAFIYgAgAACkMQAQAAhSGIAACAwhBEAABAYQgiAACgMAQRAABQGIIIAAAoDEEEAAAUhiACAAAKQxABAACFIYgAAIDCEEQAAEBhCCIAAKAwBBEAAFCY2hPHn2hH0wAAALm6/Y7bZWZmRmRySqYmReqT9WBaa+rBdBBElpeXCSIAAGAobvnzW3oHkZWVFYIIAAAYin037usZRLhHBAAAFIYgAgAACkMQAQAAhSGIAACAwhBEAABAYQgiAACgMAQRAABQGIIIAAAoDEEEAAAUhiACAAAKQxABAACFIYgAAIDCEEQAAEBh+PZdANgGVlZXpHWqJa31VlRSbvoNrfXpujQbzahk6+5/5IQ88PgJWQ32Q5U0gv2w731zsnjNXFRSLWnfvksQAYAxF4aQVivo1GelHvQBVRBsbrDdy8H25hNGNITc950TstbtBCtkXaQZBMjFD1UzjKQFES7NAMCY0zMhVQohSrdVt1m3PQ96JqSSIUQF27wSbLv+DOOIIAIAY04vx1QphBjd5rwuJYWXY6oYQkyw7VW7pJQVQQQAABSGIAIAAApDEAEAAIUhiAAAgMIQRAAAQGEIIgCA0J5r9sQOvfhtkqZV2rKqYvnua6OpbPptv90QRAAAoWOPHOuO3WkLG/5g9dbGuNNGy2yZVaEBwh2szMZueZqs7bYjgggAIJUFDht8VhZXV8UQomYPHg0Hm9YwYWVuucsNKDaYpPLtjiACANhEg0PcWY04ce380FHFEGI0MFgIsXk3SLjTxg0rSQPOIogAADbR4NArPLhnOHTshhELMVbmzltZ1VjQsADhjv1QkTVkZG23HfCldwAw5k48f0LmLsn2ZWl+WLDAoeVx075B65L0s+29XPWFo7Iy3YjmstMQoqHBHcexYJFUn6SfQNI8tSqPfqm/5ZeB/6V3Mtn5sjv90jt9dD1nRAAAm2hY6Ccw+OFF5+OGqkkLHTr2g4SVuUNSuQ7bxroOa9G41RmLjlsEEQBAOg0mFijSQooFGX/YTvo9MzLO9Gv/p+pT0pxuSn26Lo3pRnesA0EEAHAOO4MxyNkMe40/VE3SGQsLGTrOGjisrTuggyACAAhZWNCxncGwsxlJQcJta+w1/lBVfmiwgJJ0eSUuZFhbd0AHQQQAEEoKDRZCrE7nk4LJOLLgkOUshtuGsx7Z8KkZABhzg37yxA0bSeFEuXVa7s+7/OWkKfpTMy4NFnYmww8ZFlT8Mx1pYcRv30tVPzVzy823yOzMrNTrnU/J6D0j3XGAIAIAYy6vzrwIZQoiRRvXIMKlGQAAUBiCCAAAKAxBBAAAFIYgAgAACkMQAQAAhSGIAMCY008ntFrRTIXoNtsnK7aqoZ/YCL/fpKKCbW9M57MvyoYgAgBjTr/XY2V1uVJhRLdVt1m3PQ973zcrU90vW6uYYJubwbbvXZiNCsYLzxEBgDHXCnr1tdaatE61pKWdcQXomRANIfplaeHzJ7ZoJdgH//WdE/LQ8WVZDfZDlejZHA1SN39oTpo57ItR44FmALDNtYL/Ua9V6XSIYyrovOpBp7VVVd4HJq99MWoEEQBA2BFLRc6GdOlZkRw73kruA5PzvhglgggAACgMj3gHAAClRRABAADDo5eUdEhAEAEAAIUhiAAAgOFYP3svSJKJpedORJMAAAD5eeLJpdSH0u1Ya73yxUt37pILz29yfgQAAOTiieNLcv/X/kWmJqfCfDE5MSn110ShJJpXtcW/WGyvnFo5+8Q9/Zx1YO30WmfCFdWhmo4/dTwcL1yxEI513qZVWn1Wtpw0vdZtksoBVEPS8UDf072OMf57v9dyUICYm0+nzgsCh4o+mqtnQprTze68O1Y2HQaRtfUgdEQhww0jqiqPA0a6Y48cC8d7rtnTnU5ibXTcL3c9ceLq/TJ3+wbZBgDlEHccsbK4OhN3THDb+vUozqZ7QCxsRNPh2RAngGwaR21qi3+12NbgEYYRFUxvCh+cBQEAAEmCMGEsaKjYEKK86dptf3Nbe9MlGefsiOGsCAAA8HUDhQmCRRhAoulzwkcwVucEEZ32L8l0z5C4ODsCAACiQOHqBhCVMYSo2m2f6AQRDRlckgEAAANxwklS8OhOKwsi+z+1v3NpxjgBhEsyAAAgTVzAUP7ZD39e1fYf2B/erKrOCR6cFQEAAGmcYKESA4ja1Fbk/wEnJzKsg+IF7gAAAABJRU5ErkJggg==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9BAE3B-BB6F-4FFB-91FD-CCDB882E35DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5905500" y="15992475"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114858</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2562224</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>942975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FE4F35-02CD-4B51-8A7D-F357542BE54F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2953308" y="14754225"/>
+          <a:ext cx="2447366" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,67 +903,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="100.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -762,7 +1001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -797,7 +1036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -835,7 +1074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -864,7 +1103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -899,7 +1138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="346.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="346.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -934,7 +1173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -969,7 +1208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1007,7 +1246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1020,11 +1259,11 @@
       <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>62</v>
@@ -1039,7 +1278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1050,19 +1289,19 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -1071,30 +1310,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="138" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -1102,10 +1341,271 @@
       <c r="L12" s="1" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="13" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D7875-1C1E-4DF3-B8FC-935F375DDB27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D22AC53-E4D8-428A-9A9B-E6A4DFFBBA76}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="165">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提出人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问题描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +127,6 @@
   </si>
   <si>
     <t>2018.8.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VM192.168.0.29,192.168.0.30，想从虚拟机访问外网，如何配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EPC界面再配置负载均衡时，根据SDN的建议配置将连接限制次数适当放开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郭林伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,18 +315,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>後端二線支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在运营平台中运营流程--&gt;资源审批界面，将該虚拟机的删除配置重新审批后，该虚拟机在用户虚拟机界面中删除。怀疑该虚拟机创建和删除需要走流程才可以生效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>後端開發支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>數據不一致，殘留數據</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,10 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>後端開發支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户想查看该虚拟机日志，但云平台已无其创建时8月3日时的日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +431,260 @@
   </si>
   <si>
     <t>研發回復:租户管理员默认能管理租户下的所有业务系统，不能修改，也就是无法删除的；但是租户操作员是能管理分配给自己的业务系统，是可以进行修改，也就是可以删除的。后建議用戶將有問題那個用戶的角色更換為租戶操作員。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户反馈某103段虚拟机 telnet 203.142.110.6 13002 访问失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、虚拟机抓包，首包一直重传；2、tracert 203.142.110.6从结果看，已通过了云平台，怀疑某网络设备拦截13002端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀疑香港移动网络部SN侧拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thomas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈，某些负载均衡IP（103.15.85.243、103.15.85.242等）的80端口有时断时续的问题，有时可以访问，有时不可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障现象与问题编号7现象类似，怀疑是负载均衡连接限制数不够，用户配置的是10，10月8日升级后最大可配置100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将用户4个访问量较大的负载均衡配置的连接限制数由10改为100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月8日网络升级后，终端选择CMHK Internet和CMHK Guest无线接入点后，无法ping通新增的123.136.1.100和123.136.9.100浮动IP，而使用手机热点可以ping通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、抓包；2、tracert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港移动AP内有拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampson协调香港移动做网络策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPC界面再配置负载均衡时，根据SDN的建议配置将连接限制次数适当放开。                                   2018年10月10日更新，该问题2018年10月8日升级界面放开了负载均衡监听器连接限制数1-10的限制，升级后，用户可最大配置100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击监听器，再点击编辑，这个界面有点问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发说没有升级编辑界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次升级编辑界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.11</t>
+  </si>
+  <si>
+    <t>网上搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu中resolv.conf文件其实是一个Link文件，在Ubuntu中有一个 resolvconf 的服务，这个服务用来控制/etc/resolv.conf的内容，所以一旦重启了系统或者该服务，那么/etc/resolv.conf文件中的内容将被还原为原来的内容，所以直接修改/etc/resolv.conf并不能解决这个问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、vim /etc/network/interface增加dns-nameserver 8.8.8.8 8.8.4.4 2、vim /etc/resolvconf/resolv.conf.d/base 增加nameserver 8.8.8.8 8.8.4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机创建失败，报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问后方支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀疑虚拟机选择的配置较低，原配置选择的1核1G内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为选择4核1G内存50G硬盘后，创建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机(ubuntu)在/etc/resolv.conf配置文件中添加了nameserver 8.8.8.8，但重启虚拟机后DNS配置失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台软件问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">客户购买块存储失败，报错如下服务器发生异常,代码00.请联系管理员,参数信息{块存储订单参数如下：=VolumeOrder{businessId=af9b5a7a7d85433a9d8ca7814b4b8b8c, name=storage01, productId=2e10719611c9413bb1b9ab431a55197c, number=1, productId=2e10719611c9413bb1b9ab431a55197c}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发排查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台软件bug，需要更新数据库的一个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台软件升级，需要更新数据库的一个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户想在windows远程桌面一台Ubuntu的虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上搜索相关问题解决方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考链接，https://blog.csdn.net/zz_1215/article/details/77921405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）用hk-yw登录后，有的虚拟机点击变更可弹出菜单，有的虚拟机无法弹出菜单；2）当点击了无法弹出菜单虚拟机的变更按钮后，原来可弹出菜单的虚拟机，也无法弹出菜单了</t>
+  </si>
+  <si>
+    <t>可购买对象存储，但退订时界面报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端研发支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM192.168.0.29,192.168.0.30，想从虚拟机既可以访问外网也可以访问10段私网，如何配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,8 +779,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -596,9 +826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2562224</xdr:colOff>
+      <xdr:colOff>2573654</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>942975</xdr:rowOff>
+      <xdr:rowOff>931545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,6 +859,270 @@
         <a:xfrm>
           <a:off x="2953308" y="14754225"/>
           <a:ext cx="2447366" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2322195</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1196430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421F4D82-9802-457C-8A4F-98F86A976F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="20878098"/>
+          <a:ext cx="2173605" cy="1172367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>105494</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2457649</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1120141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22047272-A8E6-4FA8-83F1-1B9B546CAEDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2639144" y="22494241"/>
+          <a:ext cx="2344535" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108921</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2308860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>964614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347DB69B-FEA1-4B07-B731-CD13D14A7E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638761" y="25039321"/>
+          <a:ext cx="2199939" cy="918893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123631</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2549686</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1402080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A029B9E-85FB-4378-B330-F5B00AD84369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2653471" y="28155899"/>
+          <a:ext cx="2426055" cy="1318261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>719176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2129145</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1670308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F690768-F895-4D3C-9BC9-08060B005BA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3032760" y="30376216"/>
+          <a:ext cx="1626225" cy="951132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2659380</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>647357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89463560-AE5C-4C8B-B37F-E1E775005D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2606040" y="29746148"/>
+          <a:ext cx="2583180" cy="558249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,704 +1397,1043 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="3"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="100.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="100.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
+      <c r="K6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="346.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="346.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
+      <c r="J8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="138" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="69" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
+      <c r="J16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="99.75" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" t="s">
-        <v>12</v>
+      <c r="J18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I19" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F22"/>
+      <c r="K20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="124.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="199.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D22AC53-E4D8-428A-9A9B-E6A4DFFBBA76}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF309A3-EAA3-4D2F-A720-67965161BD7E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="188">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,18 +617,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平台软件升级，需要更新数据库的一个字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郭林伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>handing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配置问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>handing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提出人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,6 +673,110 @@
   </si>
   <si>
     <t>VM192.168.0.29,192.168.0.30，想从虚拟机既可以访问外网也可以访问10段私网，如何配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发已定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待用户批准升级，或等二期升级OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要更新数据库的一个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复花费代价较高，且有其他方式解决用户的需求，和用户沟通后暂不升级，等待升级OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些同一个VPC下的虚拟机之间无法ping通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看了虚拟机、VPC的防火墙、安全组配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户虚拟机安全组配置只放通了部分端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在安全组配置中将端口全部放通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某虚拟机做如下操作1、创建镜像；2、重装系统；后报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用测试账号复现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用测试账号未能复现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续观察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该问题是lance粱在UTV业务压力测试时反馈的，其使用jmeter压测软件模拟1000个并发访问某web服务（web服务器位于云内某虚拟机）时，response会有失败现象，有部分日志是connection time out，lance希望查看一下公有云的带宽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我用测试账号，分别测了上传、下载的速率，上传2.5-3MB/s,下载在4.1-4.3MB/s，以公网角度来看速率还算不错。暂时感觉不应该是带宽问题，下一步可以觉得可以用租户的虚拟机测一下速率，如果速率没有问题，可以看看客户web服务的相关配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,9 +1056,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2308860</xdr:colOff>
+      <xdr:colOff>2301240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>964614</xdr:rowOff>
+      <xdr:rowOff>972234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1010,7 +1102,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>2549686</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>1402080</xdr:rowOff>
+      <xdr:rowOff>1392555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1052,9 +1144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2129145</xdr:colOff>
+      <xdr:colOff>2113905</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>1670308</xdr:rowOff>
+      <xdr:rowOff>1660783</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1096,7 +1188,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2659380</xdr:colOff>
+      <xdr:colOff>2649855</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>647357</xdr:rowOff>
     </xdr:to>
@@ -1123,6 +1215,50 @@
         <a:xfrm>
           <a:off x="2606040" y="29746148"/>
           <a:ext cx="2583180" cy="558249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>163156</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2687027</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>816817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D58312-A012-40C0-90A7-D64A7E97346A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038628" y="32838103"/>
+          <a:ext cx="2523871" cy="685839"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1397,13 +1533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
@@ -1647,7 +1783,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>47</v>
@@ -1857,7 +1993,7 @@
         <v>91</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>71</v>
@@ -1892,7 +2028,7 @@
         <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>72</v>
@@ -1930,7 +2066,7 @@
         <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>72</v>
@@ -1965,7 +2101,7 @@
         <v>85</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>88</v>
@@ -2003,7 +2139,7 @@
         <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>95</v>
@@ -2076,7 +2212,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>78</v>
@@ -2336,16 +2472,19 @@
         <v>146</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="K26" s="1" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
@@ -2353,22 +2492,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
         <v>143</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>143</v>
@@ -2380,7 +2519,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="124.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2391,22 +2530,34 @@
         <v>142</v>
       </c>
       <c r="C28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" t="s">
         <v>155</v>
       </c>
-      <c r="D28" t="s">
-        <v>157</v>
-      </c>
       <c r="E28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="J28" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K28" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="199.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2417,22 +2568,127 @@
         <v>142</v>
       </c>
       <c r="C29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" t="s">
         <v>156</v>
       </c>
-      <c r="D29" t="s">
-        <v>158</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="J29" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K29" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF309A3-EAA3-4D2F-A720-67965161BD7E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34998BF0-1CB0-4BA7-9771-6D39094A1105}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="228">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -760,23 +760,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018.11.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该问题是lance粱在UTV业务压力测试时反馈的，其使用jmeter压测软件模拟1000个并发访问某web服务（web服务器位于云内某虚拟机）时，response会有失败现象，有部分日志是connection time out，lance希望查看一下公有云的带宽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我用测试账号，分别测了上传、下载的速率，上传2.5-3MB/s,下载在4.1-4.3MB/s，以公网角度来看速率还算不错。暂时感觉不应该是带宽问题，下一步可以觉得可以用租户的虚拟机测一下速率，如果速率没有问题，可以看看客户web服务的相关配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏研部署完软件后，底层无法启虚拟机，报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTV用户投诉，从公网传文件较慢，后使用两个虚拟机绑定浮动IP，之间传输文件的速率在1.5MB左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个绑定了浮动IP的虚拟机之间SCP文件，发现速率确实很低，之后用iperf测了一下公有云带宽只有10M左右，后让SDN排人来查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是因为sdn那边有很多vsr(对应云平台中的vpc)的license过期 导致跨vsr转发时sdn限速了 sdn已经动对这些vsr进行了激活。经过这次操作 现有租户(itdsp utv-1 utv-2 migu)的vpc已永久激活，但新增租户如果创建vpc 180天后要手动激活，后续让sdn厂家给出自动激活的方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>粱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.11.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该问题是lance粱在UTV业务压力测试时反馈的，其使用jmeter压测软件模拟1000个并发访问某web服务（web服务器位于云内某虚拟机）时，response会有失败现象，有部分日志是connection time out，lance希望查看一下公有云的带宽。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我用测试账号，分别测了上传、下载的速率，上传2.5-3MB/s,下载在4.1-4.3MB/s，以公网角度来看速率还算不错。暂时感觉不应该是带宽问题，下一步可以觉得可以用租户的虚拟机测一下速率，如果速率没有问题，可以看看客户web服务的相关配置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭林伟</t>
+  </si>
+  <si>
+    <t>2018.11.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天马泽亚反馈一个问题，其所订购的某台虚拟机在登录时报如下警告，warning :/proc/ide/hd?/settings interface is obsolete,and will be removed soon!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林华协助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    客户执行rpm升级时，携带了-U、nodeps参数，该操作可能会导致lib文件丢失，从而报错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最初想进行系统修复，但修复比较麻烦，而且有搞丢数据的风险，所以，能否让用户备份该虚拟机内重要数据，重新订购一台新的虚拟机，将出问题虚拟机业务迁移到新虚拟机上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马泽亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdn工程师手动将vsr激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDN排查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDN排查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为满足migu需求有2个解决办法：1. 从目前的租户中退一个出来给咪咕用，或者用目前的测试租户2. 提前扩容NFV节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25柜的6台计算节点做完安全加固重启，重启后，计算节点的network服务未能正常启动，有报错，且ping同网段IP需要很久才可以ping通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动将bond3的配置文件中增加了BONDING_OPTS="mode=1 miimon=100"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该就是控制节点无法用主机名与计算节点通信的原因</t>
+  </si>
+  <si>
+    <t>2018.12.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天在给用户演示时 发现个问题，在新计算节点上新建的虚机，ping不通公网，然后热迁到老节点上就通了，再迁回新的，还是能通。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新租户创建的虚拟机无法出公网，无法ping通网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港公有云一期项目总共采购了16个VSR lincense，部署在2台NFV服务器上，目前NFV服务器上已没有多余的资源扩容VSR。VSR数目不够导致了该问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> vds1-br口没有gateway，也没有手动添加路由，接入vtep与gw的vtep不通导致虚拟机无法上公网。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、安全加固后linux内核版本升高，需要恢复原来的内核版本，否则会导致一些不可知的问题；2、SDN部署软件后，将bond3配置文件进行了修改，删除了BONDING_OPTS="mode=1 miimon=100"，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方法：1、通过将6台计算节点/etc/sysconfig/static-routes 配置增加4.0的路由明细，出口是200.1。
+                  2、通过手动添加ip route
+通过以后两步后，解决新计算节点无法上公网问题。后来在晚间高粱在vds1-br的配置文件中增加了网关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马泽亚，粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【客户投诉|销】2018-12-4 10:07:00，香港公有云重要客户UTV反馈云主机访问延时非常大，核心功能基本都瘫痪，通过初步排查，判断103段和223段挂的虚机都受影响，初步检查发现103.15.85.83 是華3 SDN router网段发生网络攻击，把带宽占满，导致该网段云主机延迟大，但具体攻击IP地址暂未查出，</t>
+  </si>
+  <si>
+    <t>1、查看ips、查看出口路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次发现有异常的公网地址是一个vpc地址   1，vpc地址不能马上定位是哪一台虚拟机，是需要查询vpc地址属于哪个租户    2.vpc下有多台虚拟机需要逐台确定是哪台虚拟机异常      3，前面出现问题能快速定位虚拟机是因为：异常ip是一个浮动IP地址，是可以很快定位到是哪台虚拟机和属于哪个租户。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现一个103.15.85.83的IP很可疑，是个vpc地址，sampson说将这个vpc停用。停用vpc需将将其关联的虚拟机退订，退订虚拟机后，流量慢慢恢复正常。（这里可以讲VPC断外网连接）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏研</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +968,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -829,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -841,6 +1008,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,6 +1443,111 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>194094</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2645432</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>588045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="圖片 1" descr="Attach/image001(12-16-09-43-44).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D1264D-ECB4-4146-A0A4-B2C0191C9362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8288547" y="35303605"/>
+          <a:ext cx="2451338" cy="559289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>92736</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>222849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2140693</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1459303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA00B45-1AA7-415B-8738-28975A80114C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5735849" y="37848396"/>
+          <a:ext cx="2047957" cy="1236454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1533,13 +1814,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2673,22 +2954,310 @@
         <v>182</v>
       </c>
       <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
         <v>183</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>128</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>187</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E40" s="7"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="6"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E47" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34998BF0-1CB0-4BA7-9771-6D39094A1105}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FC3C5-769C-4981-95B3-0365DCC45A8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="270">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -937,6 +937,173 @@
   </si>
   <si>
     <t>苏研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与李京龙研究pxe自动化部署，碰到的第一个问题是服务器无法dhcp获取其PXE服务器分配的IP，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓包发现没有收到其dhcp的响应包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其PXE服务器是在其笔记本的一台虚拟机中，怀疑其网络为nat模式导致，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后改为桥接模式后，可进入系统安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.21</t>
+  </si>
+  <si>
+    <t>客户反馈无法建立虚拟机，创建虚拟机后，其状态一直是创建中，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线支持，后续找研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息队列有积压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于要给migu租户腾出vsr资源，客户要求将hktest-zifuwu租户退订，在退订时发现vpc无法删除，报防火墙删除缓慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报二线支持，后找研发和华三人一期排查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华三声称没有收到openstack发来的删除消息，苏研研发怀疑是h3c_agent与neutron-server通信发生了问题，建议重启h3c_agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启CON08的h3c_agent后可正常删除VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块存储和对象存储需要进行升级，修改数据库，目前还没有解决，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件升级，修改数据库。后香港移动客户说暂时用之前的租户给migu使用，hktest-zifuwu租户暂时不退了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为腾出vsr资源，退订hktest-zifuwu租户时，有块存储，对象存储无法退订。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给migu租户创建了26台虚拟机和10个SLB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给migu租户配置SLB的浮动IP及防火墙策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建27台虚拟机供安全检查（每个镜像一台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTV业务保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合安全加固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.12-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合南基对25柜物理服务器进行安全加固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在SDN进行配置，登录10.250.54.40/sdn/ U:admin P:h3c.com20181217,界面选择虚拟网络-&gt;应用集群虚IP，然后选择创建应用集群IP（如192.168.17.166是虚拟IP），然后在虚拟端口界面中找对应的虚拟机如192.168.17.115,192.168.17.104，对应到虚拟IP上，然后在应用集群IP界面选择虚IP可以绑定公网IP。虚IP验证方法：将虚iP如192.168.17.166配到192.168.17.115或192.168.17.104上（ip addr add 192.168.17.166 dev eth0），用同网段其他虚拟机ping这个虚IP，如果可以ping通就算正常，ping通公网IP就算正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户想在云平台底层建立虚IP，并绑定外网IP，目前界面不支持，只能在底层实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线支持，后续找sdn支持，先使用苏研一知的方法创建虚IP，但创建后虚IP无法ping通，后联系sdn解决。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合migu租户上线，协助其修改vpc防火墙策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1814,13 +1981,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3194,69 +3361,396 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
         <v>210</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E40" s="7"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E41" s="6"/>
-      <c r="H41" s="1"/>
+      <c r="L41" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E47" s="7" t="s">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E51" s="7" t="s">
         <v>191</v>
       </c>
     </row>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FC3C5-769C-4981-95B3-0365DCC45A8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118CD257-FFA1-4960-9FBF-E5DE368943F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="3624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="273">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,6 +1104,18 @@
   </si>
   <si>
     <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问SDN厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在配置keepalive时脑裂，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要配置成单播，sdn现在组播不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1981,13 +1993,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3754,6 +3766,17 @@
         <v>191</v>
       </c>
     </row>
+    <row r="53" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118CD257-FFA1-4960-9FBF-E5DE368943F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E1563E-0B46-44D1-A5CE-6E9FBDA7A97F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="3624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="315">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -792,10 +792,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网络问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,15 +1103,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>询问SDN厂家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户在配置keepalive时脑裂，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要配置成单播，sdn现在组播不支持</t>
+    <t>运维保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 咪咕租户提出需求，增加防火墙配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用界面1)增加了源221.181.101.37 访问192.168.0.89 22 的策略
+   2）放通了任何 访问192.168.0.82 8085-8087
+   3）修改了migu-vpc-in-808x配置，将原8081-8084改为8080-8084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕用户反馈，103.15.85.27这个负载均衡后端只有192.168.0.107一个虚拟机生效，实际配置了4台虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后将其他虚拟机的防火墙关了，好了，systemctl stop firewalld.service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕用户需要对几个虚拟机做扩内存操作，在界面操作后，发现内存并没有按照预期从16G变更为32G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起初二线支持怀疑是ssh免密造成的，后研发说是nova用户被锁定了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migu租户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后租户自行将keepalived配置成单播，ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要配置成单播，sdn现在组播不支持，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕租户希望虚拟机的业务IP可以和负载均衡虚IP互通（同一VPC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻求后端二线支持，后找到研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻求二线支持，后询问SDN厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟负载均衡器是南北向流量服务，负载虚拟IP一般不支持虚拟机内网二层访问，必须经过路由才行，SDN报给其产品部门寻求解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机挂两个网卡时，报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线陈林华解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhclient</t>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给192.168.0.214虚拟机绑定弹性IP</t>
+  </si>
+  <si>
+    <t>2019.1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天美达机房电源割接，导致19机柜11台服务器和2台交换机重启，租户业务发生中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最初是utv租户报故障，后陆续所有租户均反馈出现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.10</t>
+  </si>
+  <si>
+    <t>1、机房巡检，发现电源割接；2、联系二线支持，发现虚拟机无法ping通网关；3、联系sdn厂家发现租户vsr配置全丢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源割接，导致服务器重启，进而导致一系列问题，其中comp5和comp7没有自动重启成功，手动重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏研所有运维、SDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报某负载均衡流量只到一台服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDN排查，怀疑是前一天故障导致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后sdn发现其负载均衡策略是源IP的策略，而不是之前经常用到的轮询的方式，这样如果只是一个外网IP访问负载均衡，将只分到一台服务器，是用户配置的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、sdn厂家将租户vsr全部重建；2、二线支持将部分错误状态虚拟机进行修复；3、onegw租户在重建vsr后，可ping通网关，但无法出公网，发现线程死锁，上线版本有缺陷，将升级解决；4、sdnvpc地址可以从公网ssh、telnet访问到，后续需要加安全策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕租户希望将两个负载均衡配置从轮询算法修改为会话保持（对应公有云哈希算法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.15</t>
+  </si>
+  <si>
+    <t>咪咕租户希望给192.168.0.120和192.168.0.126配置虚地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后用sdn界面将192.168.0.100配置为他们的虚IP，1）、在sdn的界面，虚拟网络 -》应用集群虚IP创建一个虚IP，虚拟链路层网路选择其vpc，生效方式选择vrrp主备
+   2）、在虚拟网络-》虚拟端口界面，高级搜索，找到虚IP要对应的虚拟机IP，点击修改，选择应用集群虚IP列表，将虚IP从左边选到右边
+   3）、验证，将虚IP配置到虚拟机IP上（192.168.0.120或192.168.0.126）
+        ip addr add 192.168.0.100/24 dev eth0 
+     在没有配置到虚IP对应的虚拟机之前，虚IP无法ping通，配置到对应虚拟机后，虚IP可ping通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,13 +1317,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1175,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1189,9 +1352,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1993,18 +2153,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.77734375" style="2" customWidth="1"/>
@@ -3156,28 +3317,28 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" t="s">
         <v>199</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>11</v>
@@ -3191,13 +3352,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" t="s">
         <v>192</v>
       </c>
-      <c r="C34" t="s">
-        <v>193</v>
-      </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>188</v>
@@ -3209,13 +3370,13 @@
         <v>190</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>11</v>
@@ -3232,28 +3393,28 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D35" t="s">
-        <v>221</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>164</v>
@@ -3270,25 +3431,25 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>11</v>
@@ -3308,25 +3469,25 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>164</v>
@@ -3346,25 +3507,25 @@
         <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>164</v>
@@ -3382,19 +3543,19 @@
         <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>164</v>
@@ -3408,25 +3569,25 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>164</v>
@@ -3446,25 +3607,25 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>164</v>
@@ -3478,22 +3639,22 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>164</v>
@@ -3510,25 +3671,25 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>164</v>
@@ -3548,25 +3709,25 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>164</v>
@@ -3586,25 +3747,25 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>164</v>
@@ -3621,22 +3782,22 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>164</v>
@@ -3650,19 +3811,19 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>164</v>
@@ -3676,19 +3837,19 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>164</v>
@@ -3702,28 +3863,28 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" t="s">
         <v>265</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>266</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="I49" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="L49" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="234.6" x14ac:dyDescent="0.25">
@@ -3731,50 +3892,413 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" t="s">
         <v>259</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="L50" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" t="s">
+        <v>272</v>
+      </c>
       <c r="E51" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" t="s">
+        <v>272</v>
+      </c>
       <c r="E53" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
         <v>270</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>272</v>
+      <c r="C54" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" t="s">
+        <v>283</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I54" t="s">
+        <v>283</v>
+      </c>
+      <c r="J54" t="s">
+        <v>283</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I55" t="s">
+        <v>286</v>
+      </c>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" t="s">
+        <v>286</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I56" t="s">
+        <v>286</v>
+      </c>
+      <c r="J56" t="s">
+        <v>286</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I57" t="s">
+        <v>297</v>
+      </c>
+      <c r="J57" t="s">
+        <v>297</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D58" t="s">
+        <v>297</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" t="s">
+        <v>291</v>
+      </c>
+      <c r="D59" t="s">
+        <v>301</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" t="s">
+        <v>309</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="248.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" t="s">
+        <v>311</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E1563E-0B46-44D1-A5CE-6E9FBDA7A97F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99421CF-0D81-4E31-882E-AAC235392720}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="3624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="338">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1286,6 +1286,153 @@
   </si>
   <si>
     <t>2019.1.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sampson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望在云平台停用123.136.1.0/24和123.136.9.0/24段公网IP，用户无法选择，但不能影响已有的业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求二线支持，修改响应数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   从10.250.54.10 ssh 10.0.6.10 
+   mysql -uroot -pEpic2wsx@wsx
+   use zebra;
+   update networks set deleted=1 where name='SDNout123-1';
+   update networks set deleted=1 where name='SDNout123-2';
+   update subnets set deleted=1 where name='SDNout123-1';
+   update subnets set deleted=1 where name='SDNout123-2';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕租户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕租户的负载均衡103.15.85.30 （192.168.0.133 192.168.0.137），能ping通103.15.85.30，但无法访问其监听的8085端口，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在vpc的防火墙将192.168.0.133和192.168.0.137的8085端口放通了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">咪咕租户操作步骤，
+需求：
+咪咕租户提出，希望虚拟机的业务IP（26台），可以访问负载均衡的虚IP；
+现状：目前咪咕租户虚拟机业务IP和负载均衡的虚IP都在一个VPC下，同处于192.168.0.0/24段；
+云平台VM侧步骤：
+1、在VPC中增加一个网段，192.168.1.0/24，网关192.168.1.1；已完
+（该网段一定要确保只为作为访问VIP用！！）
+2、所有虚拟机多绑定一个网卡，IP为192.168.1.0/24段；      已完
+3、手动修改虚拟机192.168.1.0/24段网卡配置文件，因目前网卡已绑定虚拟机，配置文件的地址与DHCP的IP一致，192.168.1.Y，注意要将网关删除； 
+   一般192.168.1.0/24段在网卡eth1上，复制ifcfg-eth0创建ifcfg-eth1  
+4、逐虚拟机systemctl restart network,使网卡配置生效；    已完
+5、将虚地址手动增加至主机路由；（migu原有vpc网段为192.168.0.0/24，只能加32位主机路由）,目前咪咕租户一共11个负载均衡，2个虚地址  已完
+   route add -host 192.168.0.76/32 gw 192.168.1.1
+   route add -host 192.168.0.86/32 gw 192.168.1.1
+   route add -host 192.168.0.17/32 gw 192.168.1.1
+   route add -host 192.168.0.22/32 gw 192.168.1.1
+   route add -host 192.168.0.31/32 gw 192.168.1.1
+   route add -host 192.168.0.99/32 gw 192.168.1.1
+   route add -host 192.168.0.103/32 gw 192.168.1.1
+   route add -host 192.168.0.68/32 gw 192.168.1.1
+   route add -host 192.168.0.146/32 gw 192.168.1.1 
+   route add -host 192.168.0.138/32 gw 192.168.1.1
+   route add -host 192.168.0.155/32 gw 192.168.1.1
+   route add -host 192.168.0.168/32 gw 192.168.1.1 
+   route add -host 192.168.0.100/32 gw 192.168.1.1
+6、逐台虚拟机将
+route add -host 192.168.0.76/32 gw 192.168.1.1
+route add -host 192.168.0.86/32 gw 192.168.1.1
+route add -host 192.168.0.17/32 gw 192.168.1.1
+route add -host 192.168.0.22/32 gw 192.168.1.1
+route add -host 192.168.0.31/32 gw 192.168.1.1
+route add -host 192.168.0.99/32 gw 192.168.1.1
+route add -host 192.168.0.103/32 gw 192.168.1.1
+route add -host 192.168.0.68/32 gw 192.168.1.1
+route add -host 192.168.0.146/32 gw 192.168.1.1 
+route add -host 192.168.0.138/32 gw 192.168.1.1
+route add -host 192.168.0.155/32 gw 192.168.1.1
+route add -host 192.168.0.168/32 gw 192.168.1.1 
+route add -host 192.168.0.100/32 gw 192.168.1.1
+systemctl stop firewalld.service              
+   写入到/etc/rc.local中                       已完
+7、chmod +x /etc/rc.d/rc.local 系统重启后，能将路由加入路由表中。
+8、在VPC的防火强中增加了一条从源192.168.1.0/24段（1:65535）到192.168.0.0/24段（1:65535）的策略            已完
+SDN控制器侧步骤：
+数据转发层面，执行2步
+1、在对应migu的VSR上，创建acl匹配特定的流，该特定流源为192.168.X.0这个专门为访问VIP的段，目的为10个VIP的地址；
+2、在对应migu的VSR的网关接口下，启用nat功能，使得匹配上列acl的特定流的源IP地址被nat成网关地址，让真实服务器能先把包回给网关，网关再将包传回给VM
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云平台绑定网卡报错，但虚拟机操作系统能看到，前台与底层数据不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果从界面绑定网卡失败，但操作系统又能看到，从操作系统删除网卡的正确操作
+1、nova interface-list vm-id；
+2、从上个命令结果选择要删的port，然后 nova interface-detach vm-id port-id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马泽亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马泽亚有个负载均衡配置，103.15.85.245 配完以后，能从公网ping通，但telnet 103.15.85.245  443 不行，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和migu租户有个问题类似，后在防火墙中放通了负载均衡对应虚拟机端口的策略，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2153,13 +2300,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4065,7 +4212,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -4087,10 +4234,21 @@
       <c r="G55" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="H55" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="I55" t="s">
         <v>286</v>
       </c>
-      <c r="J55"/>
+      <c r="J55" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -4296,9 +4454,138 @@
         <v>271</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>315</v>
+      </c>
+      <c r="C62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>315</v>
+      </c>
+      <c r="C63" t="s">
+        <v>324</v>
+      </c>
+      <c r="D63" t="s">
+        <v>325</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" t="s">
+        <v>330</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" t="s">
+        <v>334</v>
+      </c>
+      <c r="D65" t="s">
+        <v>335</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99421CF-0D81-4E31-882E-AAC235392720}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721C09C9-8E65-4AC8-9363-8995DCC5A61D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="3624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="348">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1433,6 +1433,53 @@
   </si>
   <si>
     <t>和migu租户有个问题类似，后在防火墙中放通了负载均衡对应虚拟机端口的策略，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.2.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕租户创建负载均衡，添加成员时，报资源池错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系二线支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机绑定了双网卡，卸载掉一个后，顺利创建负载均衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN与短信系统对接失败，询问公有云平台对外的IP是哪个，SDN工程师反馈：
+1、配置浮动IP的VM，出去访问公网时，地址映射（nat）成浮动IP；
+2、没有绑浮动IP的VM，出去访问公网时，地址映射（nat）成VPC的外部网络公网IP；
+通过测试目前生产环境的35台虚拟机是符合这个逻辑的，但测试环境的6台有浮动IPNAT配置部分没有生效
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">建议
+1、涉及到的有问题的VM的浮动IP全部重新建立一遍，最后创建0.89对应的103.15.85.64，先做0.42和0.82的，一个个来，看0.42/0.82的能生效不
+2、手工在虚拟路由器上控制哪些流能用103.15.85.64这个浮动IP，这招劣势就是又是在虚拟路由器上直接配置
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系华三工程师，可用curl ifconfig.me命令看到外部IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2300,13 +2347,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3496,7 +3543,7 @@
     </row>
     <row r="34" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>191</v>
@@ -3534,7 +3581,7 @@
     </row>
     <row r="35" spans="1:12" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -3572,7 +3619,7 @@
     </row>
     <row r="36" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -3607,7 +3654,7 @@
     </row>
     <row r="37" spans="1:12" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -3644,8 +3691,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>35</v>
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -3682,8 +3729,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>36</v>
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -3712,8 +3759,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>37</v>
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>255</v>
@@ -3744,8 +3791,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>38</v>
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -3782,8 +3829,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>39</v>
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>254</v>
@@ -3811,8 +3858,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>40</v>
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>
@@ -3846,8 +3893,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>41</v>
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>142</v>
@@ -3884,8 +3931,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>42</v>
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>142</v>
@@ -3922,8 +3969,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>43</v>
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -3954,8 +4001,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>44</v>
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>254</v>
@@ -3980,8 +4027,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>45</v>
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>254</v>
@@ -4006,8 +4053,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>46</v>
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>264</v>
@@ -4035,8 +4082,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="234.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>47</v>
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>254</v>
@@ -4070,8 +4117,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>48</v>
+      <c r="A51">
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>270</v>
@@ -4102,8 +4149,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>49</v>
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>270</v>
@@ -4137,8 +4184,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>50</v>
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>270</v>
@@ -4175,8 +4222,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>51</v>
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>270</v>
@@ -4213,8 +4260,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>52</v>
+      <c r="A55">
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>270</v>
@@ -4251,8 +4298,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>53</v>
+      <c r="A56">
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>270</v>
@@ -4286,8 +4333,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>54</v>
+      <c r="A57">
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>270</v>
@@ -4318,8 +4365,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>55</v>
+      <c r="A58">
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>270</v>
@@ -4356,8 +4403,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>56</v>
+      <c r="A59">
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>270</v>
@@ -4391,8 +4438,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>57</v>
+      <c r="A60">
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>270</v>
@@ -4423,8 +4470,8 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="248.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>58</v>
+      <c r="A61">
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>270</v>
@@ -4455,8 +4502,8 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>59</v>
+      <c r="A62">
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>315</v>
@@ -4490,8 +4537,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>60</v>
+      <c r="A63">
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>315</v>
@@ -4522,8 +4569,8 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>61</v>
+      <c r="A64">
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>142</v>
@@ -4557,8 +4604,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>62</v>
+      <c r="A65">
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>315</v>
@@ -4586,6 +4633,64 @@
       </c>
       <c r="L65" s="2" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" t="s">
+        <v>338</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C67" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" t="s">
+        <v>344</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721C09C9-8E65-4AC8-9363-8995DCC5A61D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D8AF17-BAE5-4F91-9D7F-9BE220F6DD26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="355">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1480,6 +1480,34 @@
   </si>
   <si>
     <t>联系华三工程师，可用curl ifconfig.me命令看到外部IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.3.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检时发现10.250.54.20的load average偏高，达到18-19左右，cpu负载偏高影响服务器稳定运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、top发现215284进程cpu偏高；2、使用ps -aux|grep 215284发现uuid；3、使用nova show 该uuid找到虚拟机；4、vnc访问该虚拟机发现有一个winlogo进程将虚拟机cpu打满；5、然后ps -aux|grep 29277  怀疑被攻击挖矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户将改虚拟机的winlogo进程杀掉，重启，后恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1532,7 +1560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1540,8 +1568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2081,6 +2108,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>172528</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>911881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2710070</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1848256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86636E2-A8E4-480F-910F-7B298358A67C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448511" y="70512298"/>
+          <a:ext cx="2537542" cy="936375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1579114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2623930</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1858060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B45080-1D6C-4BDF-913D-68341B2EFAAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8428384" y="71179531"/>
+          <a:ext cx="2471529" cy="278946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2347,13 +2462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomRight" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2366,46 +2481,45 @@
     <col min="7" max="7" width="40.21875" style="2" customWidth="1"/>
     <col min="8" max="8" width="30.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2437,13 +2551,13 @@
       <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2475,10 +2589,10 @@
       <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2513,10 +2627,10 @@
       <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2542,10 +2656,10 @@
       <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2574,13 +2688,13 @@
       <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2609,13 +2723,13 @@
       <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2644,13 +2758,13 @@
       <c r="H8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -2682,13 +2796,13 @@
       <c r="H9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -2714,13 +2828,13 @@
       <c r="H10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2749,10 +2863,10 @@
       <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -2781,10 +2895,10 @@
       <c r="I12" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -2816,10 +2930,10 @@
       <c r="I13" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -2854,10 +2968,10 @@
       <c r="I14" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -2892,10 +3006,10 @@
       <c r="I15" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -2927,10 +3041,10 @@
       <c r="I16" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -2962,10 +3076,10 @@
       <c r="I17" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -3000,10 +3114,10 @@
       <c r="I18" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -3038,10 +3152,10 @@
       <c r="I19" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -3076,7 +3190,7 @@
       <c r="J20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -3111,7 +3225,7 @@
       <c r="J21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -3149,7 +3263,7 @@
       <c r="J22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -3441,7 +3555,7 @@
       <c r="I30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" t="s">
         <v>171</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -3905,7 +4019,7 @@
       <c r="D44" t="s">
         <v>232</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>233</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -3943,7 +4057,7 @@
       <c r="D45" t="s">
         <v>238</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>239</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -3978,7 +4092,7 @@
       <c r="D46" t="s">
         <v>238</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>246</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -4013,7 +4127,7 @@
       <c r="D47" t="s">
         <v>247</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>248</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -4039,7 +4153,7 @@
       <c r="D48" t="s">
         <v>249</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>250</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -4065,13 +4179,13 @@
       <c r="D49" t="s">
         <v>266</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>267</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" t="s">
         <v>266</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -4094,7 +4208,7 @@
       <c r="D50" t="s">
         <v>259</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>262</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -4129,7 +4243,7 @@
       <c r="D51" t="s">
         <v>272</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>273</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -4691,6 +4805,41 @@
       </c>
       <c r="H67" s="2" t="s">
         <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="152.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>348</v>
+      </c>
+      <c r="C68" t="s">
+        <v>349</v>
+      </c>
+      <c r="D68" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D8AF17-BAE5-4F91-9D7F-9BE220F6DD26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EACD3BB-9CB5-4585-AF17-9B5967497E29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="363">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1504,6 +1504,39 @@
   </si>
   <si>
     <t>用户将改虚拟机的winlogo进程杀掉，重启，后恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现op界面上有几个虚拟机内外都与公网不通，如一台虚拟机192.168.66.222这个虚拟机，无法ping通网关192.168.66.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与SDN一起排查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、虚拟机所在物理计算节点无法ping通对端；2、op界面的安全组策略没有放通，后加了出入的icmp策略和3389策略，可ping通网关，amy的虚拟机也通了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在物理计算节点添加路由和静态路由 ip route add 192.168.4.0/24 via 192.168.200.1 dev vds1-br
+ echo any net 192.168.4.0/24 gw 192.168.200.1 &gt;&gt; /etc/sysconfig/static-routes  2在op界面上添加安全组策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2462,13 +2495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L68" sqref="L68"/>
+      <selection pane="bottomRight" activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4842,6 +4875,44 @@
         <v>349</v>
       </c>
     </row>
+    <row r="69" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>355</v>
+      </c>
+      <c r="C69" t="s">
+        <v>356</v>
+      </c>
+      <c r="D69" t="s">
+        <v>357</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EACD3BB-9CB5-4585-AF17-9B5967497E29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7B01C8-C7F0-4A5D-BE3F-0283C283C49B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="371">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1541,6 +1541,38 @@
   </si>
   <si>
     <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onegw租户有个虚ip192.168.17.206无法使用，但另一个虚ip192.168.17.166可以正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏研、sdn一期定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于公有云目前没有虚IP功能，用户想使用的虚ip的话需要在sdn vcfc界面的应用集群虚ip功能中创建，但发现192.168.17.206该虚ip下未绑定虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新创建192.168.17.206这个虚ip并绑定用户对应虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏研等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2495,13 +2527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L69" sqref="L69"/>
+      <selection pane="bottomRight" activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4913,6 +4945,44 @@
         <v>356</v>
       </c>
     </row>
+    <row r="70" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>363</v>
+      </c>
+      <c r="C70" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70" t="s">
+        <v>365</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7B01C8-C7F0-4A5D-BE3F-0283C283C49B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1460B1-79EB-4189-993D-F2C1C7F7028F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="380">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1573,6 +1573,42 @@
   </si>
   <si>
     <t>苏研等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户投诉虚拟机无法绑定网卡， 现象是绑定网卡后界面显示已经绑定，但在虚拟机内部看不到该网卡，后再测试账号复现问题时，发现不仅网卡无法绑定，创建虚拟机也异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏研、华三研发定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未给出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏研等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启了10.250.54.30服务器，重启后测试账号可正常创建虚拟机并绑定网卡，后还需要清除OP界面的脏数据，给租户重新绑定网卡才能根本解决问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2527,13 +2563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L70" sqref="L70"/>
+      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4983,6 +5019,44 @@
         <v>370</v>
       </c>
     </row>
+    <row r="71" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>371</v>
+      </c>
+      <c r="C71" t="s">
+        <v>372</v>
+      </c>
+      <c r="D71" t="s">
+        <v>373</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1460B1-79EB-4189-993D-F2C1C7F7028F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BDD9FF-E24D-48C5-A2C8-EDE5E32F422C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="388">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1609,6 +1609,38 @@
   </si>
   <si>
     <t>重启了10.250.54.30服务器，重启后测试账号可正常创建虚拟机并绑定网卡，后还需要清除OP界面的脏数据，给租户重新绑定网卡才能根本解决问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李京龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.250.54.70 74 76三台服务器/空间不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apps/logs/neutron/server.log过大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo &gt; server.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个负载均衡配置在流量较大时，出现异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2563,13 +2595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5057,6 +5089,58 @@
         <v>378</v>
       </c>
     </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" t="s">
+        <v>380</v>
+      </c>
+      <c r="D72" t="s">
+        <v>381</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>386</v>
+      </c>
+      <c r="C73" t="s">
+        <v>324</v>
+      </c>
+      <c r="D73" t="s">
+        <v>381</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BDD9FF-E24D-48C5-A2C8-EDE5E32F422C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB12AD4-3E08-4721-8B56-016F7AB7944E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="394">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1641,6 +1641,30 @@
   </si>
   <si>
     <t>某个负载均衡配置在流量较大时，出现异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭林伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hktest-zifuwu的一个虚拟机ping网关和公网时有丢包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划找华三排查，但发现10.250.54.76的某些网卡流量特别大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理服务器的网卡名称找到虚拟机，然后在虚拟机中发现一些异常进程怀疑被攻击或中毒，导致带宽受到影响，后退订了192.168.139.187，恢复正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退订了异常虚拟机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2329,6 +2353,392 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14226</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>89948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1281112</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1174681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="C:\Users\guolinwei\AppData\Roaming\Foxmail7\Temp-12592-20190524172328\Attach\Catch341C(05-24-(05-24-18-27-38).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80303FA6-B2C3-45E5-9E9F-98E0AE72C37C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3076514" y="74823098"/>
+          <a:ext cx="1266886" cy="1084733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1072602</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>115542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2343150</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1132647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="C:\Users\guolinwei\AppData\Roaming\Foxmail7\Temp-12592-20190524172328\Attach\Catch(05-24-03-2(05-24-18-27-38).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A3A612-39C6-4671-83B8-CED15730C677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4134890" y="74848692"/>
+          <a:ext cx="1270548" cy="1017105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70617</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1120140</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1584960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39C7AF5-1471-47B0-B8A1-C9B9E2B7F5D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5892297" y="75049380"/>
+          <a:ext cx="1049523" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2179320</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>906780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94E338-44BC-48FB-9752-F9F21E9DC6D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6736080" y="75209400"/>
+          <a:ext cx="1264920" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1526720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>2796540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6179F90F-E7F7-411B-AAB7-B8A4C5057F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5882640" y="76240820"/>
+          <a:ext cx="990600" cy="1269820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>929641</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1488331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2240280</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1973580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76AB2ED4-EF36-4C69-8DA9-239676E9B716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6751321" y="76202431"/>
+          <a:ext cx="1310639" cy="485249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1165860</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>3382484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB44BCB-A645-467D-A66A-2E0046D2FAA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5974080" y="77571600"/>
+          <a:ext cx="1013460" cy="524984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1243592</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>2766060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2299423</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>3492706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A034AE02-C843-430A-8E37-ADDB88D086C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7065272" y="77480160"/>
+          <a:ext cx="1055831" cy="726646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2595,13 +3005,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5141,6 +5551,50 @@
         <v>387</v>
       </c>
     </row>
+    <row r="74" spans="1:12" ht="282" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" t="s">
+        <v>388</v>
+      </c>
+      <c r="D74" t="s">
+        <v>389</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E75"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F80"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
